--- a/LibroPersona.xlsx
+++ b/LibroPersona.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>admin</t>
   </si>
@@ -50,55 +50,76 @@
     <t>0</t>
   </si>
   <si>
-    <t>Figueroa</t>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Nacho</t>
+  </si>
+  <si>
+    <t>19.490.616-1</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>casado</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1997.0</t>
+  </si>
+  <si>
+    <t>prueba</t>
   </si>
   <si>
     <t>Femenino</t>
   </si>
   <si>
-    <t>Fernanda Liliana</t>
-  </si>
-  <si>
-    <t>19.679.822-6</t>
-  </si>
-  <si>
-    <t>Araneda</t>
-  </si>
-  <si>
-    <t>rancagua</t>
-  </si>
-  <si>
-    <t>casado</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>Nacho</t>
-  </si>
-  <si>
-    <t>19.490.616-1</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>1997.0</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>19.000.000-0</t>
+    <t>agregar</t>
+  </si>
+  <si>
+    <t>19.818.424-7</t>
+  </si>
+  <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>soltero</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Fuentes</t>
+  </si>
+  <si>
+    <t>David|</t>
+  </si>
+  <si>
+    <t>19.123.123-1</t>
+  </si>
+  <si>
+    <t>Alvear</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>1997</t>
   </si>
   <si>
     <t>Mera</t>
@@ -111,6 +132,51 @@
   </si>
   <si>
     <t>Concha</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Juanito</t>
+  </si>
+  <si>
+    <t>19.525.874-4</t>
+  </si>
+  <si>
+    <t>Mata</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>Juan Gabriel</t>
+  </si>
+  <si>
+    <t>19.232.231-8</t>
+  </si>
+  <si>
+    <t>Loco</t>
+  </si>
+  <si>
+    <t>Sybelle</t>
+  </si>
+  <si>
+    <t>19.528.811-9</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -210,13 +276,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -225,22 +291,22 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
@@ -251,104 +317,104 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -357,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -375,10 +441,142 @@
         <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
